--- a/FcBarcelona.xlsx
+++ b/FcBarcelona.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laura Fagschlunger\Desktop\FcBarcelona\Website_FCBarcelona\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laura Fagschlunger\Desktop\FCBarcelona_New\FCBarcelona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC29BDF-BC1C-4140-B6D8-CE39F160EB49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8247DA-6909-4ABB-94EE-C35DDE6143FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1724FF09-E9C3-42B0-974F-3410D5E43E21}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t xml:space="preserve">Thema: </t>
   </si>
@@ -64,6 +64,15 @@
   </si>
   <si>
     <t>Navigation verbessert und Login und Registrierung angefangen</t>
+  </si>
+  <si>
+    <t>Git Hub Probleme</t>
+  </si>
+  <si>
+    <t>Footer + Navigation</t>
+  </si>
+  <si>
+    <t>Navigation + Team</t>
   </si>
 </sst>
 </file>
@@ -428,7 +437,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,9 +527,13 @@
         <v>43859</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -528,13 +541,22 @@
         <v>43860</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F10" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A5:B5"/>
@@ -551,11 +573,6 @@
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FcBarcelona.xlsx
+++ b/FcBarcelona.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laura Fagschlunger\Desktop\FCBarcelona_New\FCBarcelona\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabi\Desktop\Website\FCBarcelona\FCBarcelona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8247DA-6909-4ABB-94EE-C35DDE6143FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1316937-7347-4E5B-8367-30501B7C7D4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1724FF09-E9C3-42B0-974F-3410D5E43E21}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1724FF09-E9C3-42B0-974F-3410D5E43E21}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t xml:space="preserve">Thema: </t>
   </si>
@@ -73,6 +73,33 @@
   </si>
   <si>
     <t>Navigation + Team</t>
+  </si>
+  <si>
+    <t>Datenbank</t>
+  </si>
+  <si>
+    <t>Diashow</t>
+  </si>
+  <si>
+    <t>Login+Registration</t>
+  </si>
+  <si>
+    <t>Best Moments</t>
+  </si>
+  <si>
+    <t>Startseite</t>
+  </si>
+  <si>
+    <t>Startseite + Datenbnk</t>
+  </si>
+  <si>
+    <t>Diashow verbessern</t>
+  </si>
+  <si>
+    <t>Krank</t>
+  </si>
+  <si>
+    <t>Arzt Termin</t>
   </si>
 </sst>
 </file>
@@ -108,9 +135,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -119,6 +152,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -434,129 +473,228 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20506B9-2E59-4315-B23D-C979DD0E3726}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C16" sqref="C16:D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
         <v>43846</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>43852</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
         <v>43853</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
         <v>43859</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
         <v>43860</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>43866</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>43867</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>43894</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>43895</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>43901</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>43902</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
+  <mergeCells count="39">
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A5:B5"/>
@@ -573,6 +711,11 @@
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
